--- a/PCB/main/main-all-pos.xlsx
+++ b/PCB/main/main-all-pos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C6710F-A3D0-4F48-805C-F33A25ECECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F1937-B204-4B42-9A1B-18EB9E9EB8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main-all-pos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="186">
   <si>
     <t>Designator</t>
   </si>
@@ -52,10 +52,10 @@
     <t>XDCR_ALS-PT19-315C_L177_TR8</t>
   </si>
   <si>
-    <t>99.620000</t>
-  </si>
-  <si>
-    <t>-125.205000</t>
+    <t>136.000000</t>
+  </si>
+  <si>
+    <t>-115.500000</t>
   </si>
   <si>
     <t>0.000000</t>
@@ -67,7 +67,10 @@
     <t>A2</t>
   </si>
   <si>
-    <t>-128.205000</t>
+    <t>153.750000</t>
+  </si>
+  <si>
+    <t>-94.250000</t>
   </si>
   <si>
     <t>C1</t>
@@ -79,211 +82,175 @@
     <t>CAPC1608X90N</t>
   </si>
   <si>
-    <t>138.830000</t>
-  </si>
-  <si>
-    <t>-127.705000</t>
+    <t>128.500000</t>
+  </si>
+  <si>
+    <t>-98.500000</t>
+  </si>
+  <si>
+    <t>90.000000</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>120.250000</t>
+  </si>
+  <si>
+    <t>-92.250000</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>127.000000</t>
+  </si>
+  <si>
+    <t>-64.500000</t>
   </si>
   <si>
     <t>180.000000</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>134.250000</t>
+  </si>
+  <si>
+    <t>-123.250000</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CL21C101JBANNNC</t>
+  </si>
+  <si>
+    <t>CAPC2012X75N</t>
+  </si>
+  <si>
+    <t>162.250000</t>
+  </si>
+  <si>
+    <t>-117.000000</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>112.250000</t>
+  </si>
+  <si>
+    <t>-111.000000</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>93.000000</t>
+  </si>
+  <si>
+    <t>-111.250000</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>117.500000</t>
+  </si>
+  <si>
+    <t>-116.250000</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>154.750000</t>
+  </si>
+  <si>
+    <t>-122.750000</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>149.000000</t>
+  </si>
+  <si>
+    <t>-73.000000</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CL10A335KP8NNNC</t>
+  </si>
+  <si>
+    <t>141.000000</t>
+  </si>
+  <si>
+    <t>-112.500000</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>142.750000</t>
+  </si>
+  <si>
+    <t>-94.000000</t>
+  </si>
+  <si>
+    <t>C13</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
   </si>
   <si>
-    <t>125.000000</t>
-  </si>
-  <si>
-    <t>-125.000000</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CL10A475KA8NQNC</t>
-  </si>
-  <si>
-    <t>CAPC1608X95N</t>
-  </si>
-  <si>
-    <t>151.120000</t>
-  </si>
-  <si>
-    <t>-112.205000</t>
-  </si>
-  <si>
-    <t>90.000000</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>140.120000</t>
-  </si>
-  <si>
-    <t>-111.705000</t>
+    <t>126.000000</t>
+  </si>
+  <si>
+    <t>-69.460000</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>DIOM5227X270N</t>
+  </si>
+  <si>
+    <t>98.750000</t>
+  </si>
+  <si>
+    <t>-103.750000</t>
   </si>
   <si>
     <t>-90.000000</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>140.330000</t>
-  </si>
-  <si>
-    <t>-106.000000</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>110.620000</t>
-  </si>
-  <si>
-    <t>-121.415000</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>-120.000000</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>145.620000</t>
-  </si>
-  <si>
-    <t>-119.205000</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>171.620000</t>
-  </si>
-  <si>
-    <t>-125.705000</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>174.120000</t>
-  </si>
-  <si>
-    <t>-123.205000</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CL10A335KP8NNNC</t>
-  </si>
-  <si>
-    <t>164.120000</t>
-  </si>
-  <si>
-    <t>-105.205000</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>155.830000</t>
-  </si>
-  <si>
-    <t>-100.705000</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>-107.705000</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>CL10C470JB8NNNC</t>
-  </si>
-  <si>
-    <t>178.120000</t>
-  </si>
-  <si>
-    <t>-128.705000</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>-114.205000</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LEDC1608X70N</t>
-  </si>
-  <si>
-    <t>107.120000</t>
-  </si>
-  <si>
-    <t>-106.705000</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>BAT60J</t>
-  </si>
-  <si>
-    <t>D_SOD-323</t>
-  </si>
-  <si>
-    <t>132.620000</t>
-  </si>
-  <si>
-    <t>-118.705000</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>-99.705000</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>Ferrite_Bead</t>
-  </si>
-  <si>
-    <t>BEADC1608X95N</t>
-  </si>
-  <si>
-    <t>135.245000</t>
-  </si>
-  <si>
-    <t>-100.225000</t>
+    <t>99.750000</t>
+  </si>
+  <si>
+    <t>-94.750000</t>
   </si>
   <si>
     <t>IC1</t>
@@ -295,16 +262,19 @@
     <t>SOIC127P600X175-8N</t>
   </si>
   <si>
-    <t>161.620000</t>
-  </si>
-  <si>
-    <t>-115.705000</t>
+    <t>137.000000</t>
+  </si>
+  <si>
+    <t>-104.250000</t>
   </si>
   <si>
     <t>IC2</t>
   </si>
   <si>
-    <t>146.620000</t>
+    <t>150.250000</t>
+  </si>
+  <si>
+    <t>-104.000000</t>
   </si>
   <si>
     <t>IC3</t>
@@ -313,55 +283,22 @@
     <t>AT24C256C-SSHL-T</t>
   </si>
   <si>
-    <t>174.620000</t>
-  </si>
-  <si>
-    <t>-102.205000</t>
+    <t>128.250000</t>
   </si>
   <si>
     <t>IC4</t>
   </si>
   <si>
-    <t>FT230XS-R</t>
-  </si>
-  <si>
-    <t>SOP64P599X175-16N</t>
-  </si>
-  <si>
-    <t>114.620000</t>
-  </si>
-  <si>
-    <t>-127.205000</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>MCP73831T-2ACI_OT</t>
-  </si>
-  <si>
-    <t>SOT95P270X145-5N</t>
-  </si>
-  <si>
-    <t>136.000000</t>
-  </si>
-  <si>
-    <t>-112.000000</t>
-  </si>
-  <si>
-    <t>IC6</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E_TT</t>
-  </si>
-  <si>
-    <t>SOT95P237X112-3N</t>
-  </si>
-  <si>
-    <t>117.620000</t>
-  </si>
-  <si>
-    <t>-103.705000</t>
+    <t>TP4056-42-ESOP8</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-9N</t>
+  </si>
+  <si>
+    <t>121.500000</t>
+  </si>
+  <si>
+    <t>-103.000000</t>
   </si>
   <si>
     <t>J1</t>
@@ -373,10 +310,10 @@
     <t>PinHeader_1x33_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>179.940000</t>
-  </si>
-  <si>
-    <t>-83.840000</t>
+    <t>173.870000</t>
+  </si>
+  <si>
+    <t>-77.280000</t>
   </si>
   <si>
     <t>J2</t>
@@ -385,19 +322,19 @@
     <t>PinSocket_1x33_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>-94.000000</t>
+    <t>-87.440000</t>
   </si>
   <si>
     <t>J3</t>
   </si>
   <si>
-    <t>-134.640000</t>
+    <t>-128.080000</t>
   </si>
   <si>
     <t>J4</t>
   </si>
   <si>
-    <t>-144.800000</t>
+    <t>-138.240000</t>
   </si>
   <si>
     <t>J5</t>
@@ -406,10 +343,10 @@
     <t>47346-0001</t>
   </si>
   <si>
-    <t>189.650000</t>
-  </si>
-  <si>
-    <t>-111.912500</t>
+    <t>180.250000</t>
+  </si>
+  <si>
+    <t>-107.000000</t>
   </si>
   <si>
     <t>J6</t>
@@ -421,19 +358,16 @@
     <t>HDRV2W64P0X254_1X2_508X250X873P</t>
   </si>
   <si>
-    <t>98.620000</t>
-  </si>
-  <si>
-    <t>-109.705000</t>
+    <t>129.480000</t>
+  </si>
+  <si>
+    <t>-69.000000</t>
   </si>
   <si>
     <t>J7</t>
   </si>
   <si>
-    <t>112.215000</t>
-  </si>
-  <si>
-    <t>-108.230000</t>
+    <t>136.230000</t>
   </si>
   <si>
     <t>J8</t>
@@ -445,85 +379,142 @@
     <t>HDRV3W64P0X254_1X3_762X250X885P</t>
   </si>
   <si>
-    <t>103.620000</t>
+    <t>98.000000</t>
+  </si>
+  <si>
+    <t>-52.710000</t>
   </si>
   <si>
     <t>J9</t>
   </si>
   <si>
-    <t>145.015000</t>
-  </si>
-  <si>
-    <t>-107.600000</t>
+    <t>122.500000</t>
+  </si>
+  <si>
+    <t>-70.770000</t>
   </si>
   <si>
     <t>J10</t>
   </si>
   <si>
-    <t>101.620000</t>
-  </si>
-  <si>
-    <t>-98.705000</t>
+    <t>83.250000</t>
+  </si>
+  <si>
+    <t>-52.750000</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>ICH-340-CTT</t>
+  </si>
+  <si>
+    <t>DIPS762W74P254L5080H338Q40N</t>
+  </si>
+  <si>
+    <t>126.370000</t>
+  </si>
+  <si>
+    <t>-60.060000</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>92.250000</t>
+  </si>
+  <si>
+    <t>-57.750000</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>-67.790000</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>134.790000</t>
+  </si>
+  <si>
+    <t>-73.250000</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>19-217_GHC-YR1S2_3T</t>
+  </si>
+  <si>
+    <t>LEDC1608X50N</t>
+  </si>
+  <si>
+    <t>101.250000</t>
+  </si>
+  <si>
+    <t>-113.750000</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>101.500000</t>
+  </si>
+  <si>
+    <t>-120.750000</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>IRF9540NPbF</t>
-  </si>
-  <si>
-    <t>TO254P469X1042X1967-3P</t>
-  </si>
-  <si>
-    <t>131.160000</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>RESC1005X35N</t>
-  </si>
-  <si>
-    <t>138.620000</t>
-  </si>
-  <si>
-    <t>-121.705000</t>
-  </si>
-  <si>
-    <t>RC0805FR-07470RL</t>
-  </si>
-  <si>
-    <t>RESC2012X60N</t>
-  </si>
-  <si>
-    <t>109.120000</t>
-  </si>
-  <si>
-    <t>-117.525000</t>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>SOT95P280X125-3N</t>
+  </si>
+  <si>
+    <t>106.250000</t>
+  </si>
+  <si>
+    <t>-101.750000</t>
+  </si>
+  <si>
+    <t>0603WAF1201T5E</t>
+  </si>
+  <si>
+    <t>RESC1608X55N</t>
+  </si>
+  <si>
+    <t>111.000000</t>
+  </si>
+  <si>
+    <t>-93.000000</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>113.500000</t>
+  </si>
+  <si>
+    <t>-107.750000</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
-    <t>114.120000</t>
-  </si>
-  <si>
-    <t>-118.205000</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>179.620000</t>
-  </si>
-  <si>
-    <t>161.665000</t>
-  </si>
-  <si>
-    <t>-129.205000</t>
+    <t>119.000000</t>
+  </si>
+  <si>
+    <t>-122.500000</t>
+  </si>
+  <si>
+    <t>148.500000</t>
+  </si>
+  <si>
+    <t>-91.250000</t>
   </si>
   <si>
     <t>AC0402FR-07536KL</t>
@@ -532,130 +523,67 @@
     <t>RESC1005X37N</t>
   </si>
   <si>
-    <t>152.820000</t>
-  </si>
-  <si>
-    <t>-129.705000</t>
-  </si>
-  <si>
-    <t>172.620000</t>
-  </si>
-  <si>
-    <t>-130.205000</t>
-  </si>
-  <si>
-    <t>149.145000</t>
-  </si>
-  <si>
-    <t>-125.155000</t>
-  </si>
-  <si>
-    <t>167.120000</t>
-  </si>
-  <si>
-    <t>169.120000</t>
-  </si>
-  <si>
-    <t>-121.205000</t>
-  </si>
-  <si>
-    <t>168.620000</t>
-  </si>
-  <si>
-    <t>154.420000</t>
-  </si>
-  <si>
-    <t>-104.205000</t>
-  </si>
-  <si>
-    <t>0603WAF270JT5E</t>
-  </si>
-  <si>
-    <t>158.000000</t>
-  </si>
-  <si>
-    <t>-127.000000</t>
-  </si>
-  <si>
-    <t>142.120000</t>
-  </si>
-  <si>
-    <t>-116.205000</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>131.120000</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>131.020000</t>
-  </si>
-  <si>
-    <t>-100.350000</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>128.320000</t>
-  </si>
-  <si>
-    <t>-112.315000</t>
-  </si>
-  <si>
-    <t>TP4</t>
-  </si>
-  <si>
-    <t>116.650000</t>
-  </si>
-  <si>
-    <t>-112.130000</t>
-  </si>
-  <si>
-    <t>TP5</t>
-  </si>
-  <si>
-    <t>144.120000</t>
-  </si>
-  <si>
-    <t>TP6</t>
-  </si>
-  <si>
-    <t>105.000000</t>
-  </si>
-  <si>
-    <t>-131.000000</t>
-  </si>
-  <si>
-    <t>TP7</t>
-  </si>
-  <si>
-    <t>-126.405000</t>
-  </si>
-  <si>
-    <t>TP8</t>
-  </si>
-  <si>
-    <t>152.000000</t>
-  </si>
-  <si>
-    <t>-106.900000</t>
-  </si>
-  <si>
-    <t>TP9</t>
-  </si>
-  <si>
-    <t>161.970000</t>
+    <t>160.250000</t>
+  </si>
+  <si>
+    <t>155.750000</t>
+  </si>
+  <si>
+    <t>132.250000</t>
+  </si>
+  <si>
+    <t>-99.000000</t>
+  </si>
+  <si>
+    <t>141.750000</t>
+  </si>
+  <si>
+    <t>-116.750000</t>
+  </si>
+  <si>
+    <t>129.500000</t>
+  </si>
+  <si>
+    <t>-105.250000</t>
+  </si>
+  <si>
+    <t>164.750000</t>
+  </si>
+  <si>
+    <t>-93.250000</t>
+  </si>
+  <si>
+    <t>160.000000</t>
+  </si>
+  <si>
+    <t>-112.750000</t>
+  </si>
+  <si>
+    <t>147.250000</t>
+  </si>
+  <si>
+    <t>109.250000</t>
+  </si>
+  <si>
+    <t>-121.000000</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>HT75xx-1-SOT89</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>93.500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -1493,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1573,22 +1501,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1596,19 +1524,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1619,22 +1547,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1642,22 +1570,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1671,13 +1599,13 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1688,22 +1616,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1711,22 +1639,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1734,22 +1662,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1757,19 +1685,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1780,19 +1708,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1803,19 +1731,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1826,22 +1754,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1849,22 +1777,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1872,22 +1800,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1895,22 +1823,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1918,19 +1846,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1941,22 +1869,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1964,22 +1892,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1987,22 +1915,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2010,22 +1938,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2033,22 +1961,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2056,22 +1984,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -2079,22 +2007,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -2102,10 +2030,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
@@ -2117,7 +2045,7 @@
         <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -2151,19 +2079,19 @@
         <v>114</v>
       </c>
       <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2171,22 +2099,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2194,22 +2122,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
         <v>122</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
       </c>
       <c r="E31" t="s">
         <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -2220,19 +2148,19 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -2240,22 +2168,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -2263,13 +2191,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2278,7 +2206,7 @@
         <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -2289,19 +2217,19 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
         <v>136</v>
       </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -2309,22 +2237,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -2332,13 +2260,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
         <v>142</v>
-      </c>
-      <c r="B37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
       </c>
       <c r="D37" t="s">
         <v>143</v>
@@ -2358,10 +2286,10 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
         <v>146</v>
@@ -2370,7 +2298,7 @@
         <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -2390,10 +2318,10 @@
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -2404,16 +2332,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2427,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2453,13 +2381,13 @@
         <v>160</v>
       </c>
       <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>162</v>
-      </c>
-      <c r="E42" t="s">
-        <v>163</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2473,19 +2401,19 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2496,16 +2424,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2519,16 +2447,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2542,19 +2470,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
         <v>168</v>
       </c>
-      <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -2565,16 +2493,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2588,16 +2516,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2611,19 +2539,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -2634,16 +2562,16 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2657,19 +2585,19 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -2680,19 +2608,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -2703,251 +2631,44 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>182</v>
       </c>
-      <c r="C53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B54" t="s">
         <v>183</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C54" t="s">
         <v>184</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" t="s">
-        <v>161</v>
       </c>
       <c r="D54" t="s">
         <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55">
-        <v>5017</v>
-      </c>
-      <c r="C55">
-        <v>5017</v>
-      </c>
-      <c r="D55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56">
-        <v>5017</v>
-      </c>
-      <c r="C56">
-        <v>5017</v>
-      </c>
-      <c r="D56" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57">
-        <v>5017</v>
-      </c>
-      <c r="C57">
-        <v>5017</v>
-      </c>
-      <c r="D57" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58">
-        <v>5017</v>
-      </c>
-      <c r="C58">
-        <v>5017</v>
-      </c>
-      <c r="D58" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59">
-        <v>5017</v>
-      </c>
-      <c r="C59">
-        <v>5017</v>
-      </c>
-      <c r="D59" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60">
-        <v>5017</v>
-      </c>
-      <c r="C60">
-        <v>5017</v>
-      </c>
-      <c r="D60" t="s">
-        <v>201</v>
-      </c>
-      <c r="E60" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61">
-        <v>5017</v>
-      </c>
-      <c r="C61">
-        <v>5017</v>
-      </c>
-      <c r="D61" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62">
-        <v>5017</v>
-      </c>
-      <c r="C62">
-        <v>5017</v>
-      </c>
-      <c r="D62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63">
-        <v>5017</v>
-      </c>
-      <c r="C63">
-        <v>5017</v>
-      </c>
-      <c r="D63" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
         <v>13</v>
       </c>
     </row>

--- a/PCB/main/main-all-pos.xlsx
+++ b/PCB/main/main-all-pos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vuyisa\MAIN_PROJECT\eee3088f-project\PCB\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F1937-B204-4B42-9A1B-18EB9E9EB8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0E6F4F2-5F3E-4EB8-9CB8-37F70B9D1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="main-all-pos" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,563 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="189">
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>ALS-PT19-315C/L177/TR8</t>
+  </si>
+  <si>
+    <t>XDCR_ALS-PT19-315C_L177_TR8</t>
+  </si>
+  <si>
+    <t>136.000000</t>
+  </si>
+  <si>
+    <t>-115.500000</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>153.750000</t>
+  </si>
+  <si>
+    <t>-94.250000</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>CAPC1608X90N</t>
+  </si>
+  <si>
+    <t>128.500000</t>
+  </si>
+  <si>
+    <t>-98.500000</t>
+  </si>
+  <si>
+    <t>90.000000</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>CAPC3216X180N</t>
+  </si>
+  <si>
+    <t>120.250000</t>
+  </si>
+  <si>
+    <t>-92.250000</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>127.000000</t>
+  </si>
+  <si>
+    <t>-64.500000</t>
+  </si>
+  <si>
+    <t>180.000000</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>134.250000</t>
+  </si>
+  <si>
+    <t>-123.250000</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CL21C101JBANNNC</t>
+  </si>
+  <si>
+    <t>CAPC2012X75N</t>
+  </si>
+  <si>
+    <t>162.250000</t>
+  </si>
+  <si>
+    <t>-117.000000</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>112.250000</t>
+  </si>
+  <si>
+    <t>-111.000000</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>93.000000</t>
+  </si>
+  <si>
+    <t>-111.250000</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>117.500000</t>
+  </si>
+  <si>
+    <t>-116.250000</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>154.750000</t>
+  </si>
+  <si>
+    <t>-122.750000</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>149.000000</t>
+  </si>
+  <si>
+    <t>-73.000000</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CL10A335KP8NNNC</t>
+  </si>
+  <si>
+    <t>141.000000</t>
+  </si>
+  <si>
+    <t>-112.500000</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>142.750000</t>
+  </si>
+  <si>
+    <t>-94.000000</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>126.000000</t>
+  </si>
+  <si>
+    <t>-69.460000</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>DIOM5227X270N</t>
+  </si>
+  <si>
+    <t>98.750000</t>
+  </si>
+  <si>
+    <t>-103.750000</t>
+  </si>
+  <si>
+    <t>-90.000000</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>99.750000</t>
+  </si>
+  <si>
+    <t>-94.750000</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>LM358DT</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>137.000000</t>
+  </si>
+  <si>
+    <t>-104.250000</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>150.250000</t>
+  </si>
+  <si>
+    <t>-104.000000</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>AT24C256C-SSHL-T</t>
+  </si>
+  <si>
+    <t>128.250000</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>TP4056-42-ESOP8</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-9N</t>
+  </si>
+  <si>
+    <t>121.500000</t>
+  </si>
+  <si>
+    <t>-103.000000</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Conn_01x33_Female</t>
+  </si>
+  <si>
+    <t>PinHeader_1x33_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>173.870000</t>
+  </si>
+  <si>
+    <t>-77.280000</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>PinSocket_1x33_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-87.440000</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>-128.080000</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>-138.240000</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>47346-0001</t>
+  </si>
+  <si>
+    <t>180.250000</t>
+  </si>
+  <si>
+    <t>-107.000000</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>PZ254V-11-02P</t>
+  </si>
+  <si>
+    <t>HDRV2W64P0X254_1X2_508X250X873P</t>
+  </si>
+  <si>
+    <t>129.480000</t>
+  </si>
+  <si>
+    <t>-69.000000</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>136.230000</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>MTP125-1103S1</t>
+  </si>
+  <si>
+    <t>HDRV3W64P0X254_1X3_762X250X885P</t>
+  </si>
+  <si>
+    <t>98.000000</t>
+  </si>
+  <si>
+    <t>-52.710000</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>122.500000</t>
+  </si>
+  <si>
+    <t>-70.770000</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>83.250000</t>
+  </si>
+  <si>
+    <t>-52.750000</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>ICH-340-CTT</t>
+  </si>
+  <si>
+    <t>DIPS762W74P254L5080H338Q40N</t>
+  </si>
+  <si>
+    <t>126.370000</t>
+  </si>
+  <si>
+    <t>-60.060000</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>92.250000</t>
+  </si>
+  <si>
+    <t>-57.750000</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>-67.790000</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>134.790000</t>
+  </si>
+  <si>
+    <t>-73.250000</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>152.000000</t>
+  </si>
+  <si>
+    <t>-64.000000</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>19-217_GHC-YR1S2_3T</t>
+  </si>
+  <si>
+    <t>LEDC1608X50N</t>
+  </si>
+  <si>
+    <t>101.250000</t>
+  </si>
+  <si>
+    <t>-113.750000</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>101.500000</t>
+  </si>
+  <si>
+    <t>-120.750000</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>SOT95P280X125-3N</t>
+  </si>
+  <si>
+    <t>106.250000</t>
+  </si>
+  <si>
+    <t>-101.750000</t>
+  </si>
+  <si>
+    <t>0603WAF1201T5E</t>
+  </si>
+  <si>
+    <t>RESC1608X55N</t>
+  </si>
+  <si>
+    <t>111.000000</t>
+  </si>
+  <si>
+    <t>-93.000000</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>113.500000</t>
+  </si>
+  <si>
+    <t>-107.750000</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>119.000000</t>
+  </si>
+  <si>
+    <t>-122.500000</t>
+  </si>
+  <si>
+    <t>148.500000</t>
+  </si>
+  <si>
+    <t>-91.250000</t>
+  </si>
+  <si>
+    <t>AC0402FR-07536KL</t>
+  </si>
+  <si>
+    <t>RESC1005X37N</t>
+  </si>
+  <si>
+    <t>160.250000</t>
+  </si>
+  <si>
+    <t>155.750000</t>
+  </si>
+  <si>
+    <t>132.250000</t>
+  </si>
+  <si>
+    <t>-99.000000</t>
+  </si>
+  <si>
+    <t>141.750000</t>
+  </si>
+  <si>
+    <t>-116.750000</t>
+  </si>
+  <si>
+    <t>129.500000</t>
+  </si>
+  <si>
+    <t>-105.250000</t>
+  </si>
+  <si>
+    <t>164.750000</t>
+  </si>
+  <si>
+    <t>-93.250000</t>
+  </si>
+  <si>
+    <t>160.000000</t>
+  </si>
+  <si>
+    <t>-112.750000</t>
+  </si>
+  <si>
+    <t>147.250000</t>
+  </si>
+  <si>
+    <t>109.250000</t>
+  </si>
+  <si>
+    <t>-121.000000</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>HT75xx-1-SOT89</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>93.500000</t>
+  </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>Val</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Mid X</t>
   </si>
   <si>
@@ -41,549 +587,12 @@
   </si>
   <si>
     <t>Layer</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>ALS-PT19-315C/L177/TR8</t>
-  </si>
-  <si>
-    <t>XDCR_ALS-PT19-315C_L177_TR8</t>
-  </si>
-  <si>
-    <t>136.000000</t>
-  </si>
-  <si>
-    <t>-115.500000</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>153.750000</t>
-  </si>
-  <si>
-    <t>-94.250000</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>CAPC1608X90N</t>
-  </si>
-  <si>
-    <t>128.500000</t>
-  </si>
-  <si>
-    <t>-98.500000</t>
-  </si>
-  <si>
-    <t>90.000000</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>CAPC3216X180N</t>
-  </si>
-  <si>
-    <t>120.250000</t>
-  </si>
-  <si>
-    <t>-92.250000</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>127.000000</t>
-  </si>
-  <si>
-    <t>-64.500000</t>
-  </si>
-  <si>
-    <t>180.000000</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>134.250000</t>
-  </si>
-  <si>
-    <t>-123.250000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CL21C101JBANNNC</t>
-  </si>
-  <si>
-    <t>CAPC2012X75N</t>
-  </si>
-  <si>
-    <t>162.250000</t>
-  </si>
-  <si>
-    <t>-117.000000</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>112.250000</t>
-  </si>
-  <si>
-    <t>-111.000000</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>93.000000</t>
-  </si>
-  <si>
-    <t>-111.250000</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>117.500000</t>
-  </si>
-  <si>
-    <t>-116.250000</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>154.750000</t>
-  </si>
-  <si>
-    <t>-122.750000</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>149.000000</t>
-  </si>
-  <si>
-    <t>-73.000000</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CL10A335KP8NNNC</t>
-  </si>
-  <si>
-    <t>141.000000</t>
-  </si>
-  <si>
-    <t>-112.500000</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>142.750000</t>
-  </si>
-  <si>
-    <t>-94.000000</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>126.000000</t>
-  </si>
-  <si>
-    <t>-69.460000</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SS14</t>
-  </si>
-  <si>
-    <t>DIOM5227X270N</t>
-  </si>
-  <si>
-    <t>98.750000</t>
-  </si>
-  <si>
-    <t>-103.750000</t>
-  </si>
-  <si>
-    <t>-90.000000</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>99.750000</t>
-  </si>
-  <si>
-    <t>-94.750000</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>LM358DT</t>
-  </si>
-  <si>
-    <t>SOIC127P600X175-8N</t>
-  </si>
-  <si>
-    <t>137.000000</t>
-  </si>
-  <si>
-    <t>-104.250000</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>150.250000</t>
-  </si>
-  <si>
-    <t>-104.000000</t>
-  </si>
-  <si>
-    <t>IC3</t>
-  </si>
-  <si>
-    <t>AT24C256C-SSHL-T</t>
-  </si>
-  <si>
-    <t>128.250000</t>
-  </si>
-  <si>
-    <t>IC4</t>
-  </si>
-  <si>
-    <t>TP4056-42-ESOP8</t>
-  </si>
-  <si>
-    <t>SOIC127P600X175-9N</t>
-  </si>
-  <si>
-    <t>121.500000</t>
-  </si>
-  <si>
-    <t>-103.000000</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Conn_01x33_Female</t>
-  </si>
-  <si>
-    <t>PinHeader_1x33_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>173.870000</t>
-  </si>
-  <si>
-    <t>-77.280000</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>PinSocket_1x33_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-87.440000</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>-128.080000</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>-138.240000</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>47346-0001</t>
-  </si>
-  <si>
-    <t>180.250000</t>
-  </si>
-  <si>
-    <t>-107.000000</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>PZ254V-11-02P</t>
-  </si>
-  <si>
-    <t>HDRV2W64P0X254_1X2_508X250X873P</t>
-  </si>
-  <si>
-    <t>129.480000</t>
-  </si>
-  <si>
-    <t>-69.000000</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>136.230000</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>MTP125-1103S1</t>
-  </si>
-  <si>
-    <t>HDRV3W64P0X254_1X3_762X250X885P</t>
-  </si>
-  <si>
-    <t>98.000000</t>
-  </si>
-  <si>
-    <t>-52.710000</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>122.500000</t>
-  </si>
-  <si>
-    <t>-70.770000</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>83.250000</t>
-  </si>
-  <si>
-    <t>-52.750000</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>ICH-340-CTT</t>
-  </si>
-  <si>
-    <t>DIPS762W74P254L5080H338Q40N</t>
-  </si>
-  <si>
-    <t>126.370000</t>
-  </si>
-  <si>
-    <t>-60.060000</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>92.250000</t>
-  </si>
-  <si>
-    <t>-57.750000</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>-67.790000</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>134.790000</t>
-  </si>
-  <si>
-    <t>-73.250000</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>19-217_GHC-YR1S2_3T</t>
-  </si>
-  <si>
-    <t>LEDC1608X50N</t>
-  </si>
-  <si>
-    <t>101.250000</t>
-  </si>
-  <si>
-    <t>-113.750000</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>101.500000</t>
-  </si>
-  <si>
-    <t>-120.750000</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>AO3401A</t>
-  </si>
-  <si>
-    <t>SOT95P280X125-3N</t>
-  </si>
-  <si>
-    <t>106.250000</t>
-  </si>
-  <si>
-    <t>-101.750000</t>
-  </si>
-  <si>
-    <t>0603WAF1201T5E</t>
-  </si>
-  <si>
-    <t>RESC1608X55N</t>
-  </si>
-  <si>
-    <t>111.000000</t>
-  </si>
-  <si>
-    <t>-93.000000</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>113.500000</t>
-  </si>
-  <si>
-    <t>-107.750000</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>119.000000</t>
-  </si>
-  <si>
-    <t>-122.500000</t>
-  </si>
-  <si>
-    <t>148.500000</t>
-  </si>
-  <si>
-    <t>-91.250000</t>
-  </si>
-  <si>
-    <t>AC0402FR-07536KL</t>
-  </si>
-  <si>
-    <t>RESC1005X37N</t>
-  </si>
-  <si>
-    <t>160.250000</t>
-  </si>
-  <si>
-    <t>155.750000</t>
-  </si>
-  <si>
-    <t>132.250000</t>
-  </si>
-  <si>
-    <t>-99.000000</t>
-  </si>
-  <si>
-    <t>141.750000</t>
-  </si>
-  <si>
-    <t>-116.750000</t>
-  </si>
-  <si>
-    <t>129.500000</t>
-  </si>
-  <si>
-    <t>-105.250000</t>
-  </si>
-  <si>
-    <t>164.750000</t>
-  </si>
-  <si>
-    <t>-93.250000</t>
-  </si>
-  <si>
-    <t>160.000000</t>
-  </si>
-  <si>
-    <t>-112.750000</t>
-  </si>
-  <si>
-    <t>147.250000</t>
-  </si>
-  <si>
-    <t>109.250000</t>
-  </si>
-  <si>
-    <t>-121.000000</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>HT75xx-1-SOT89</t>
-  </si>
-  <si>
-    <t>SOT-89-3</t>
-  </si>
-  <si>
-    <t>93.500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -1421,1255 +1430,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" t="s">
-        <v>147</v>
-      </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
         <v>148</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D40" t="s">
         <v>149</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E40" t="s">
         <v>150</v>
       </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>156</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
         <v>154</v>
       </c>
-      <c r="D41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" t="s">
-        <v>159</v>
-      </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
-        <v>164</v>
-      </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
         <v>165</v>
       </c>
-      <c r="C46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" t="s">
-        <v>168</v>
-      </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>14</v>
       </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>180</v>
       </c>
-      <c r="E53" t="s">
+      <c r="B55" t="s">
         <v>181</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
         <v>182</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D55" t="s">
         <v>183</v>
       </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
